--- a/va_facility_data_2025-02-20/Anderson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Anderson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Anderson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Anderson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2d175ce3e95b4a7e97a830f567ed5080"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7cdba39ebaa446e8946b25cc0150ae27"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7e7c52e7f7054064923592697737da02"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R36efdeffd67d474981e61d87ebbb7c49"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ree5abe0df8fc44a9a5deb48d1685ad0a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23fd03558a4c4ca2ac538484770555dd"/>
   </x:sheets>
 </x:workbook>
 </file>
